--- a/cbos_profissoes_ti_atualizado.xlsx
+++ b/cbos_profissoes_ti_atualizado.xlsx
@@ -5,15 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Residência em Dados - Instituto ECOA PUCRIO\Projeto Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Residência em Dados - Instituto ECOA PUCRIO\Projeto-Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,60 +35,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
-  <si>
-    <t>Desenvolvedor de Software</t>
-  </si>
-  <si>
-    <t>Analista de Dados</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>Administrador de Redes</t>
   </si>
   <si>
-    <t>Especialista em Segurança Cibernética</t>
-  </si>
-  <si>
-    <t>Analista de Sistemas</t>
-  </si>
-  <si>
     <t>Administrador de Banco de Dados</t>
   </si>
   <si>
     <t>Gerente de Projetos de TI</t>
-  </si>
-  <si>
-    <t>Desenvolvedor Web</t>
-  </si>
-  <si>
-    <t>Arquiteto de Nuvem</t>
-  </si>
-  <si>
-    <t>Engenheiro de IA</t>
-  </si>
-  <si>
-    <t>Designer de UX</t>
-  </si>
-  <si>
-    <t>Consultor de TI</t>
-  </si>
-  <si>
-    <t>Especialista em Suporte de TI</t>
-  </si>
-  <si>
-    <t>Analista de Negócios de TI</t>
-  </si>
-  <si>
-    <t>Representante de Vendas de TI</t>
-  </si>
-  <si>
-    <t>Coach de TI</t>
-  </si>
-  <si>
-    <t>Auditor de TI</t>
-  </si>
-  <si>
-    <t>Gerente de TI</t>
   </si>
   <si>
     <t>CBO</t>
@@ -288,30 +242,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF098749"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -481,46 +418,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,121 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="36.875" customWidth="1"/>
-    <col min="3" max="4" width="9.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -991,299 +808,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30.75" thickBot="1">
-      <c r="A2" s="7" t="s">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30.75" thickBot="1">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30.75" thickBot="1">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30.75" thickBot="1">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="30.75" thickBot="1">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30.75" thickBot="1">
-      <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30.75" thickBot="1">
-      <c r="A7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30.75" thickBot="1">
-      <c r="A8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30.75" thickBot="1">
-      <c r="A9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30.75" thickBot="1">
-      <c r="A10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30.75" thickBot="1">
+      <c r="A21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15">
+      <c r="A22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15">
+      <c r="A23" s="13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="30.75" thickBot="1">
-      <c r="A11" s="11" t="s">
+      <c r="B23" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15">
+      <c r="A24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B24" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15">
+      <c r="A25" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="30.75" thickBot="1">
-      <c r="A12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="B25" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="B26" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A14" s="10" t="s">
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B27" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" s="15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30.75" thickBot="1">
-      <c r="A17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="B28" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15">
+      <c r="A29" s="15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A19" s="12" t="s">
+      <c r="B29" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30.75" thickBot="1">
-      <c r="A20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="13" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="15">
+      <c r="A30" s="16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="30.75" thickBot="1">
-      <c r="A21" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15">
-      <c r="A22" s="17" t="s">
+      <c r="B30" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15">
+      <c r="A31" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15">
+      <c r="A32" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15">
-      <c r="A23" s="16" t="s">
+      <c r="B32" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15">
+      <c r="A33" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15">
-      <c r="A24" s="16" t="s">
+      <c r="B33" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15">
+      <c r="A34" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15">
-      <c r="A25" s="16" t="s">
+      <c r="B34" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15">
+      <c r="A35" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15">
-      <c r="A26" s="16" t="s">
+      <c r="B35" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15">
+      <c r="A36" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15">
-      <c r="A27" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="18" t="s">
+      <c r="B36" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15">
+      <c r="A37" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15">
-      <c r="A28" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15">
-      <c r="A29" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15">
-      <c r="A30" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15">
-      <c r="A31" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15">
-      <c r="A32" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15">
-      <c r="A33" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15">
-      <c r="A34" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15">
-      <c r="A35" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15">
-      <c r="A36" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15">
-      <c r="A37" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/cbos_profissoes_ti_atualizado.xlsx
+++ b/cbos_profissoes_ti_atualizado.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,153 +36,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+  <si>
+    <t>Desenvolvedor de Software</t>
+  </si>
+  <si>
+    <t>Analista de Dados</t>
+  </si>
   <si>
     <t>Administrador de Redes</t>
   </si>
   <si>
+    <t>Especialista em Segurança Cibernética</t>
+  </si>
+  <si>
+    <t>Analista de Sistemas</t>
+  </si>
+  <si>
     <t>Administrador de Banco de Dados</t>
   </si>
   <si>
     <t>Gerente de Projetos de TI</t>
   </si>
   <si>
-    <t>CBO</t>
-  </si>
-  <si>
-    <t>Cargo</t>
-  </si>
-  <si>
-    <t>2124-05</t>
+    <t>Desenvolvedor Web</t>
+  </si>
+  <si>
+    <t>Arquiteto de Nuvem</t>
+  </si>
+  <si>
+    <t>Engenheiro de IA</t>
+  </si>
+  <si>
+    <t>Designer de UX</t>
+  </si>
+  <si>
+    <t>Consultor de TI</t>
+  </si>
+  <si>
+    <t>Especialista em Suporte de TI</t>
+  </si>
+  <si>
+    <t>Analista de Negócios de TI</t>
+  </si>
+  <si>
+    <t>Representante de Vendas de TI</t>
+  </si>
+  <si>
+    <t>Coach de TI</t>
+  </si>
+  <si>
+    <t>Auditor de TI</t>
+  </si>
+  <si>
+    <t>Gerente de TI</t>
+  </si>
+  <si>
+    <t>Analista de sistemas (informática)</t>
   </si>
   <si>
     <t>Analista de desenvolvimento de sistemas</t>
   </si>
   <si>
+    <t>Analista de sistemas para internet</t>
+  </si>
+  <si>
     <t>Consultor de tecnologia da informação</t>
   </si>
   <si>
     <t>Tecnólogo em processamento de dados</t>
   </si>
   <si>
+    <t>Analista de sistemas web (webmaster)</t>
+  </si>
+  <si>
     <t>Tecnólogo em sistemas para internet</t>
   </si>
   <si>
     <t>Tecnólogo em análise de desenvolvimento de sistema</t>
   </si>
   <si>
-    <t>3171-10</t>
-  </si>
-  <si>
-    <t>2124-20</t>
-  </si>
-  <si>
-    <t>3172-10</t>
-  </si>
-  <si>
-    <t>3132-20</t>
+    <t>Analista de Redes e de Comunicação de Dados</t>
+  </si>
+  <si>
+    <t>Analista De Sistemas De Automação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista De Suporte Computacional </t>
+  </si>
+  <si>
+    <t>Arquiteto de Soluções de TI</t>
+  </si>
+  <si>
+    <t>Analista de Testes de TI</t>
+  </si>
+  <si>
+    <t>Desenvolvedor WEB</t>
+  </si>
+  <si>
+    <t>Programador de Máquinas</t>
+  </si>
+  <si>
+    <t>Desenvolvedor de  Sistemas de TI</t>
+  </si>
+  <si>
+    <t>Desenvolvedor de Multimídia</t>
+  </si>
+  <si>
+    <t>Operador de Computador</t>
+  </si>
+  <si>
+    <t>Técnico de Suporte Ao Usuário de TI</t>
   </si>
   <si>
     <t>Técnico em manutenção de equipamentos de informática</t>
   </si>
   <si>
-    <t>2124-10</t>
-  </si>
-  <si>
-    <t>Analista de sistemas web (webmaster)</t>
-  </si>
-  <si>
-    <t>Analista de sistemas (informática)</t>
-  </si>
-  <si>
-    <t>Analista de sistemas para internet</t>
-  </si>
-  <si>
-    <t>Desenvolvedor WEB</t>
-  </si>
-  <si>
-    <t>3171-05</t>
-  </si>
-  <si>
-    <t>3171-15</t>
-  </si>
-  <si>
-    <t>Programador de Máquinas</t>
-  </si>
-  <si>
-    <t>Desenvolvedor de Multimídia</t>
-  </si>
-  <si>
-    <t>Analista de Redes e de Comunicação de Dados</t>
-  </si>
-  <si>
-    <t>2124-15</t>
-  </si>
-  <si>
-    <t>Analista De Sistemas De Automação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analista De Suporte Computacional </t>
-  </si>
-  <si>
-    <t>2124-25</t>
-  </si>
-  <si>
-    <t>Arquiteto de Soluções de TI</t>
-  </si>
-  <si>
-    <t>2124-30</t>
-  </si>
-  <si>
-    <t>Analista de Testes de TI</t>
-  </si>
-  <si>
-    <t>Desenvolvedor de  Sistemas de TI</t>
-  </si>
-  <si>
-    <t>3171-20</t>
-  </si>
-  <si>
-    <t>3172-05</t>
-  </si>
-  <si>
-    <t>Operador de Computador</t>
-  </si>
-  <si>
-    <t>Técnico de Suporte Ao Usuário de TI</t>
-  </si>
-  <si>
     <t>Analista de Informações</t>
   </si>
   <si>
-    <t>2612-15</t>
-  </si>
-  <si>
-    <t>2123-05</t>
-  </si>
-  <si>
-    <t>2123-10</t>
-  </si>
-  <si>
-    <t>2123-15</t>
-  </si>
-  <si>
-    <t>2123-20</t>
-  </si>
-  <si>
     <t>Administrador de Sistemas Operacionais</t>
   </si>
   <si>
     <t>Administrador em Segurança da Informação</t>
   </si>
   <si>
-    <t>2122-05</t>
-  </si>
-  <si>
-    <t>2122-10</t>
-  </si>
-  <si>
-    <t>2122-15</t>
+    <t>Engenheiro de Aplicativos em Computação</t>
   </si>
   <si>
     <t>Engenheiro de Equipamentos em Computação</t>
@@ -190,30 +170,6 @@
     <t>Engenheiro de Sistemas Operacioais em Computação</t>
   </si>
   <si>
-    <t>Engenheiro de Aplicativos em Computação</t>
-  </si>
-  <si>
-    <t>1425-05</t>
-  </si>
-  <si>
-    <t>1425-10</t>
-  </si>
-  <si>
-    <t>1425-15</t>
-  </si>
-  <si>
-    <t>1425-20</t>
-  </si>
-  <si>
-    <t>1425-25</t>
-  </si>
-  <si>
-    <t>1425-30</t>
-  </si>
-  <si>
-    <t>1425-35</t>
-  </si>
-  <si>
     <t>Gerente de Infraestrutura de TI</t>
   </si>
   <si>
@@ -232,10 +188,13 @@
     <t>Tecnólogo em Gestão da TI</t>
   </si>
   <si>
-    <t>1236-05</t>
-  </si>
-  <si>
     <t>Diretor de TI</t>
+  </si>
+  <si>
+    <t>cbo_2002</t>
+  </si>
+  <si>
+    <t>nome_cargo</t>
   </si>
 </sst>
 </file>
@@ -251,107 +210,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF098749"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2E3BC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8ECBCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9DCAE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF89A1D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC78CEC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB2F8B2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9268CA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -418,37 +311,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,312 +690,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="B1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="36.875" customWidth="1"/>
+    <col min="3" max="4" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
     <col min="2" max="2" width="49.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:2" ht="15" thickBot="1">
+      <c r="A1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1">
+      <c r="A2" s="9">
+        <v>212405</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1">
+      <c r="A3" s="9">
+        <v>212405</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1">
+      <c r="A4" s="9">
+        <v>212405</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1">
+      <c r="A5" s="9">
+        <v>212405</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1">
+      <c r="A6" s="9">
+        <v>212405</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1">
+      <c r="A7" s="9">
+        <v>212405</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1">
+      <c r="A8" s="9">
+        <v>212405</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1">
+      <c r="A9" s="9">
+        <v>212405</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1">
+      <c r="A10" s="10">
+        <v>212410</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1">
+      <c r="A11" s="10">
+        <v>212415</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1">
+      <c r="A12" s="10">
+        <v>212420</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1">
+      <c r="A13" s="10">
+        <v>212425</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1">
+      <c r="A14" s="10">
+        <v>212430</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1">
+      <c r="A15" s="11">
+        <v>317105</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1">
+      <c r="A16" s="11">
+        <v>317115</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1">
+      <c r="A17" s="11">
+        <v>317110</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1">
+      <c r="A18" s="11">
+        <v>317120</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1">
+      <c r="A19" s="11">
+        <v>317205</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1">
+      <c r="A20" s="11">
+        <v>317210</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1">
+      <c r="A21" s="11">
+        <v>313220</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="11">
+        <v>261215</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="11">
+        <v>212305</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="11">
+        <v>212310</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="11">
+        <v>212315</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="11">
+        <v>212320</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="11">
+        <v>212205</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="11">
+        <v>212210</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="11">
+        <v>212215</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="11">
+        <v>142505</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="11">
+        <v>142510</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="11">
+        <v>142515</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="11">
+        <v>142520</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30.75" thickBot="1">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30.75" thickBot="1">
-      <c r="A21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15">
-      <c r="A22" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15">
-      <c r="A23" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15">
-      <c r="A24" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15">
-      <c r="A25" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15">
-      <c r="A26" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15">
-      <c r="A27" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15">
-      <c r="A28" s="15" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="11">
+        <v>142525</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="15" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="11">
+        <v>142530</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="11">
+        <v>142535</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15">
-      <c r="A29" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="15" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="11">
+        <v>123605</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15">
-      <c r="A30" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15">
-      <c r="A31" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15">
-      <c r="A32" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15">
-      <c r="A33" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15">
-      <c r="A34" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15">
-      <c r="A35" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15">
-      <c r="A36" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15">
-      <c r="A37" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
